--- a/Umbrella.xlsx
+++ b/Umbrella.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Backup\GAME\NORMAL\(Holder)Elin\Mod\Mod_PandaUmbrellaMod\Texture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Backup\GAME\NORMAL\(Holder)Elin\Src\PandaUmbrellaMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA28608A-3CFC-4CC3-9A03-1EE63EF7B977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16498604-3033-444C-8160-7D531BA89244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,12 +467,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>negateSunburn</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>1,8,3,4</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>negateSunburn/1,meleeDistance/1</t>
   </si>
 </sst>
 </file>
@@ -1614,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AZ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5703125" defaultRowHeight="12.75"/>
@@ -2138,7 +2137,7 @@
       </c>
       <c r="AH4" s="14"/>
       <c r="AI4" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AJ4" s="14" t="s">
         <v>124</v>
@@ -2147,7 +2146,7 @@
         <v>126</v>
       </c>
       <c r="AL4" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AM4" s="14"/>
       <c r="AN4" s="14"/>
